--- a/CNN/Data/Book1.xlsx
+++ b/CNN/Data/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasibahmed/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasibahmed/IdeaProjects/TeamAutomation2018/CNN/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D55CDBE-1DC7-384E-AC2D-4A26A2AF8CC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF78C2-9679-DF4C-A111-77ACC44B2A5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="2940" windowWidth="19100" windowHeight="15740" activeTab="1" xr2:uid="{0B48D681-E0A7-BB47-8C8B-90011B93B8A3}"/>
+    <workbookView xWindow="12280" yWindow="2940" windowWidth="19100" windowHeight="15740" activeTab="1" xr2:uid="{0B48D681-E0A7-BB47-8C8B-90011B93B8A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Tech</t>
   </si>
@@ -76,6 +76,51 @@
   </si>
   <si>
     <t>Innovative cities</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Innovate')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//ol[@class='m-footer__subtitles m-footer__subtitles--tech']//a[@class='m-footer__link'][contains(text(),'Gadget')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Mission: Ahead')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Upstarts')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Work Transformed')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Innovative Cities')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Arts')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Design')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Fashion')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Architecture')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Luxury')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Autos')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//ol[@class='m-footer__subtitles m-footer__subtitles--style']//a[@class='m-footer__link'][contains(text(),'Video')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__title__link'][contains(text(),'Tech')]"</t>
+  </si>
+  <si>
+    <t>xpath = "//a[@class='m-footer__title__link']//img[@class='nav-menu__img-style']"</t>
   </si>
 </sst>
 </file>
@@ -436,48 +481,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F421B5A7-3192-AD4B-A6B7-9A09A2EF4E81}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -487,53 +556,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED4EC36-9852-624E-A918-1C974573DCE8}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CNN/Data/Book1.xlsx
+++ b/CNN/Data/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hasibahmed/IdeaProjects/TeamAutomation2018/CNN/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF78C2-9679-DF4C-A111-77ACC44B2A5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CF3B9-C778-B14E-B9A2-3FC9FE495DA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="2940" windowWidth="19100" windowHeight="15740" activeTab="1" xr2:uid="{0B48D681-E0A7-BB47-8C8B-90011B93B8A3}"/>
+    <workbookView xWindow="13780" yWindow="3320" windowWidth="19100" windowHeight="15740" activeTab="1" xr2:uid="{0B48D681-E0A7-BB47-8C8B-90011B93B8A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tech</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Fashon</t>
-  </si>
-  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>Autos</t>
   </si>
   <si>
-    <t>Vidoe</t>
-  </si>
-  <si>
     <t>Innovate</t>
   </si>
   <si>
@@ -69,58 +64,31 @@
     <t>Mission: Ahead</t>
   </si>
   <si>
-    <t>Upstart</t>
-  </si>
-  <si>
     <t>Work Transformed</t>
   </si>
   <si>
-    <t>Innovative cities</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Innovate')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//ol[@class='m-footer__subtitles m-footer__subtitles--tech']//a[@class='m-footer__link'][contains(text(),'Gadget')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Mission: Ahead')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Upstarts')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Work Transformed')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Innovative Cities')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Arts')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Design')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Fashion')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Architecture')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Luxury')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__link'][contains(text(),'Autos')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//ol[@class='m-footer__subtitles m-footer__subtitles--style']//a[@class='m-footer__link'][contains(text(),'Video')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__title__link'][contains(text(),'Tech')]"</t>
-  </si>
-  <si>
-    <t>xpath = "//a[@class='m-footer__title__link']//img[@class='nav-menu__img-style']"</t>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>WORLD</t>
+  </si>
+  <si>
+    <t>TOP STORIES</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Upstarts</t>
+  </si>
+  <si>
+    <t>Innovate Cities</t>
+  </si>
+  <si>
+    <t>Fashion</t>
   </si>
 </sst>
 </file>
@@ -481,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F421B5A7-3192-AD4B-A6B7-9A09A2EF4E81}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,60 +461,39 @@
     <col min="2" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -556,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED4EC36-9852-624E-A918-1C974573DCE8}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,68 +515,82 @@
     <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E475D9-DBBD-694A-BC94-B36D702EB4F7}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
